--- a/data_year/zb/科技/规模以上工业企业产品和工艺创新情况/有产品或工艺创新活动的企业占规模以上工业企业的比重/按登记注册类型分有产品或工艺创新活动的企业占规模以上工业企业的比重.xlsx
+++ b/data_year/zb/科技/规模以上工业企业产品和工艺创新情况/有产品或工艺创新活动的企业占规模以上工业企业的比重/按登记注册类型分有产品或工艺创新活动的企业占规模以上工业企业的比重.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,49 @@
         <v>21.622</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>62.264</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55.373</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37.227</v>
+      </c>
+      <c r="E5" t="n">
+        <v>43.619</v>
+      </c>
+      <c r="F5" t="n">
+        <v>56.435</v>
+      </c>
+      <c r="G5" t="n">
+        <v>55.392</v>
+      </c>
+      <c r="H5" t="n">
+        <v>56.592</v>
+      </c>
+      <c r="I5" t="n">
+        <v>54.932</v>
+      </c>
+      <c r="J5" t="n">
+        <v>43.333</v>
+      </c>
+      <c r="K5" t="n">
+        <v>55.659</v>
+      </c>
+      <c r="L5" t="n">
+        <v>82.62</v>
+      </c>
+      <c r="M5" t="n">
+        <v>26.204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
